--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2379AB5-8761-EE4D-8865-192D34415EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8CB659-5AF4-9E48-85FA-11FDE2F242D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1820" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
@@ -3888,7 +3888,7 @@
     <t>test-2@justice.gov.uk</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>testt</t>
   </si>
 </sst>
 </file>
@@ -4454,19 +4454,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4474,12 +4462,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13108,16 +13108,16 @@
     </row>
     <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="72" t="s">
         <v>1208</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
       <c r="L4" s="67" t="s">
@@ -13132,16 +13132,16 @@
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>1210</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="69"/>
       <c r="AF4" s="69"/>
@@ -13150,16 +13150,16 @@
     </row>
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="73" t="s">
         <v>1235</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -13172,16 +13172,16 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="78" t="s">
+      <c r="V5" s="75" t="s">
         <v>1211</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
     </row>
     <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -13216,16 +13216,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>1212</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -13238,29 +13238,29 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="76" t="s">
         <v>1213</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
     </row>
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="77" t="s">
         <v>1214</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -13273,16 +13273,16 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="73" t="s">
+      <c r="V8" s="77" t="s">
         <v>1215</v>
       </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
     </row>
     <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -13337,16 +13337,16 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="73" t="s">
+      <c r="V10" s="77" t="s">
         <v>1216</v>
       </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
@@ -13515,16 +13515,16 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="71" t="s">
         <v>1217</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -13548,14 +13548,14 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -13579,16 +13579,16 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="78" t="s">
         <v>1218</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -13643,16 +13643,16 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="71" t="s">
         <v>1219</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
@@ -13676,14 +13676,14 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
@@ -13738,16 +13738,16 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="80" t="s">
         <v>1220</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -13771,14 +13771,14 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
@@ -13948,40 +13948,40 @@
     </row>
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="77" t="s">
         <v>1221</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="71" t="s">
         <v>1222</v>
       </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
-      <c r="V31" s="74" t="s">
+      <c r="V31" s="71" t="s">
         <v>1223</v>
       </c>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
     </row>
     <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -13995,68 +13995,68 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
     </row>
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="74" t="s">
         <v>1224</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
     </row>
     <row r="34" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -14090,28 +14090,28 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="74" t="s">
+      <c r="L35" s="71" t="s">
         <v>1225</v>
       </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
-      <c r="V35" s="71" t="s">
+      <c r="V35" s="74" t="s">
         <v>1226</v>
       </c>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
@@ -14125,24 +14125,24 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
@@ -14156,14 +14156,14 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -14187,26 +14187,26 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="80" t="s">
         <v>1219</v>
       </c>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="80"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
@@ -14220,26 +14220,26 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="71" t="s">
         <v>1227</v>
       </c>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="80"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="80"/>
+      <c r="AC39" s="80"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
@@ -14253,14 +14253,14 @@
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -14284,28 +14284,28 @@
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="74" t="s">
+      <c r="L41" s="71" t="s">
         <v>1228</v>
       </c>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="74" t="s">
+      <c r="V41" s="71" t="s">
         <v>1229</v>
       </c>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
     </row>
     <row r="42" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
@@ -14319,24 +14319,24 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
     </row>
     <row r="43" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
@@ -14350,26 +14350,26 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
-      <c r="L43" s="72" t="s">
+      <c r="L43" s="80" t="s">
         <v>1230</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
     </row>
     <row r="44" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
@@ -14383,26 +14383,26 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="74" t="s">
         <v>1231</v>
       </c>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
@@ -14416,24 +14416,24 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
     </row>
     <row r="46" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
@@ -14447,16 +14447,16 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="74" t="s">
+      <c r="L46" s="71" t="s">
         <v>1232</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -14470,26 +14470,26 @@
     </row>
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="74" t="s">
         <v>1233</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -14503,24 +14503,24 @@
     </row>
     <row r="48" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -14534,14 +14534,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -14565,14 +14565,14 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -14596,14 +14596,14 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -15758,18 +15758,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ni3oRhRFSHLqcHPeDMM9oJPhO6WfMxTCuA0QUr0aYxZ5GIVg5SnJ0DmCKugqbXaRKsIRpp0xaviZSFtXtsEQYA==" saltValue="uU6zNIz4+Gs4uisLnne5sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="L20:S21"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="L18:S18"/>
     <mergeCell ref="B47:I51"/>
     <mergeCell ref="L23:S24"/>
     <mergeCell ref="B31:I31"/>
@@ -15785,6 +15773,18 @@
     <mergeCell ref="L43:S45"/>
     <mergeCell ref="V44:AC45"/>
     <mergeCell ref="L46:S48"/>
+    <mergeCell ref="L20:S21"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="L16:S17"/>
+    <mergeCell ref="L18:S18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{5E7C7A05-D050-4790-AD5A-2C904F987D3F}"/>
@@ -16061,7 +16061,7 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8CB659-5AF4-9E48-85FA-11FDE2F242D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904070A-4AFE-C149-A158-8EB8DBF29D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1820" windowWidth="23260" windowHeight="12580" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="13" r:id="rId1"/>
     <sheet name="Guidance" sheetId="16" r:id="rId2"/>
     <sheet name="Terminology" sheetId="12" r:id="rId3"/>
-    <sheet name="Case Worker Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Staff Data" sheetId="1" r:id="rId4"/>
     <sheet name="User Type" sheetId="9" state="hidden" r:id="rId5"/>
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId7"/>
@@ -39,12 +39,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1250">
   <si>
     <t>Region</t>
   </si>
@@ -3381,30 +3390,6 @@
   </si>
   <si>
     <t>Primary Base Location ID</t>
-  </si>
-  <si>
-    <t>Area of Work2 ID</t>
-  </si>
-  <si>
-    <t>Area of Work1 ID</t>
-  </si>
-  <si>
-    <t>Area of Work3 ID</t>
-  </si>
-  <si>
-    <t>Area of Work4 ID</t>
-  </si>
-  <si>
-    <t>Area of Work5 ID</t>
-  </si>
-  <si>
-    <t>Area of Work6 ID</t>
-  </si>
-  <si>
-    <t>Area of Work7 ID</t>
-  </si>
-  <si>
-    <t>Area of Work8 ID</t>
   </si>
   <si>
     <t>Suspended</t>
@@ -3889,6 +3874,60 @@
   </si>
   <si>
     <t>testt</t>
+  </si>
+  <si>
+    <t>Task Supervisor</t>
+  </si>
+  <si>
+    <t>Case Allocator</t>
+  </si>
+  <si>
+    <t>Service1</t>
+  </si>
+  <si>
+    <t>Service1 ID</t>
+  </si>
+  <si>
+    <t>Service2</t>
+  </si>
+  <si>
+    <t>Service2 ID</t>
+  </si>
+  <si>
+    <t>Service3</t>
+  </si>
+  <si>
+    <t>Service3 ID</t>
+  </si>
+  <si>
+    <t>Service4</t>
+  </si>
+  <si>
+    <t>Service4 ID</t>
+  </si>
+  <si>
+    <t>Service5</t>
+  </si>
+  <si>
+    <t>Service5 ID</t>
+  </si>
+  <si>
+    <t>Service6</t>
+  </si>
+  <si>
+    <t>Service6 ID</t>
+  </si>
+  <si>
+    <t>Service7</t>
+  </si>
+  <si>
+    <t>Service7 ID</t>
+  </si>
+  <si>
+    <t>Service8</t>
+  </si>
+  <si>
+    <t>Service8 ID</t>
   </si>
 </sst>
 </file>
@@ -12865,7 +12904,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -12879,17 +12918,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="B4" s="53">
         <v>2021</v>
@@ -12899,20 +12938,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47"/>
@@ -12983,7 +13022,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -13109,7 +13148,7 @@
     <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
       <c r="B4" s="72" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -13121,7 +13160,7 @@
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
       <c r="L4" s="67" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
@@ -13133,7 +13172,7 @@
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
       <c r="V4" s="72" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="W4" s="72"/>
       <c r="X4" s="72"/>
@@ -13151,7 +13190,7 @@
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="73" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
@@ -13173,7 +13212,7 @@
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="75" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="W5" s="74"/>
       <c r="X5" s="74"/>
@@ -13217,7 +13256,7 @@
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
       <c r="B7" s="76" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -13239,7 +13278,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="76" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="W7" s="76"/>
       <c r="X7" s="76"/>
@@ -13252,7 +13291,7 @@
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
       <c r="B8" s="77" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="C8" s="77"/>
       <c r="D8" s="77"/>
@@ -13274,7 +13313,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="77" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="W8" s="77"/>
       <c r="X8" s="77"/>
@@ -13338,7 +13377,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="77" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="W10" s="77"/>
       <c r="X10" s="77"/>
@@ -13516,7 +13555,7 @@
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
       <c r="L16" s="71" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="M16" s="71"/>
       <c r="N16" s="71"/>
@@ -13580,7 +13619,7 @@
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="L18" s="78" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="M18" s="79"/>
       <c r="N18" s="79"/>
@@ -13644,7 +13683,7 @@
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="71" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="M20" s="71"/>
       <c r="N20" s="71"/>
@@ -13739,7 +13778,7 @@
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="80" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="M23" s="80"/>
       <c r="N23" s="80"/>
@@ -13949,7 +13988,7 @@
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="77" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="C31" s="77"/>
       <c r="D31" s="77"/>
@@ -13961,7 +14000,7 @@
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="71" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="M31" s="71"/>
       <c r="N31" s="71"/>
@@ -13973,7 +14012,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
       <c r="V31" s="71" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="W31" s="79"/>
       <c r="X31" s="79"/>
@@ -14017,7 +14056,7 @@
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="74" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -14091,7 +14130,7 @@
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="71" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="M35" s="71"/>
       <c r="N35" s="71"/>
@@ -14103,7 +14142,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
       <c r="V35" s="74" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="W35" s="74"/>
       <c r="X35" s="74"/>
@@ -14198,7 +14237,7 @@
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
       <c r="V38" s="80" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="W38" s="80"/>
       <c r="X38" s="80"/>
@@ -14221,7 +14260,7 @@
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="71" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="M39" s="71"/>
       <c r="N39" s="71"/>
@@ -14285,7 +14324,7 @@
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="71" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="M41" s="71"/>
       <c r="N41" s="71"/>
@@ -14297,7 +14336,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
       <c r="V41" s="71" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="W41" s="71"/>
       <c r="X41" s="71"/>
@@ -14351,7 +14390,7 @@
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="80" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="M43" s="80"/>
       <c r="N43" s="80"/>
@@ -14394,7 +14433,7 @@
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
       <c r="V44" s="74" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="W44" s="74"/>
       <c r="X44" s="74"/>
@@ -14448,7 +14487,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="71" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="M46" s="71"/>
       <c r="N46" s="71"/>
@@ -14471,7 +14510,7 @@
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="74" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C47" s="74"/>
       <c r="D47" s="74"/>
@@ -15818,49 +15857,49 @@
   <sheetData>
     <row r="1" spans="1:4" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15871,7 +15910,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15882,16 +15921,16 @@
         <v>51</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="63" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15900,16 +15939,16 @@
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="63" t="s">
-        <v>1184</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>1185</v>
+        <v>1177</v>
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="63" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -15920,7 +15959,7 @@
         <v>51</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>1187</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15931,10 +15970,10 @@
         <v>51</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1188</v>
+        <v>1180</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15943,7 +15982,7 @@
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="63" t="s">
-        <v>1189</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15954,10 +15993,10 @@
         <v>51</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15966,7 +16005,7 @@
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15975,7 +16014,7 @@
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15984,7 +16023,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15993,7 +16032,7 @@
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16002,7 +16041,7 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16011,7 +16050,7 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16020,7 +16059,7 @@
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -16029,21 +16068,21 @@
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="63" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -16058,10 +16097,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16098,7 +16137,7 @@
     <col min="30" max="30" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>1107</v>
       </c>
@@ -16124,7 +16163,7 @@
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>54</v>
@@ -16136,69 +16175,75 @@
         <v>411</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>57</v>
+        <v>1234</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1113</v>
+        <v>1235</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>58</v>
+        <v>1236</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1112</v>
+        <v>1237</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>59</v>
+        <v>1238</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1114</v>
+        <v>1239</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>60</v>
+        <v>1240</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1115</v>
+        <v>1241</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>61</v>
+        <v>1242</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1116</v>
+        <v>1243</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>62</v>
+        <v>1244</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1117</v>
+        <v>1245</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>63</v>
+        <v>1246</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1118</v>
+        <v>1247</v>
       </c>
       <c r="AA1" s="36" t="s">
-        <v>64</v>
+        <v>1248</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1119</v>
+        <v>1249</v>
       </c>
       <c r="AC1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="54" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1112</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>6</v>
@@ -16270,10 +16315,10 @@
       </c>
       <c r="AC2" s="39"/>
       <c r="AD2" s="39" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="40"/>
@@ -16338,7 +16383,7 @@
       <c r="AC3" s="39"/>
       <c r="AD3" s="39"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
@@ -16403,15 +16448,15 @@
       <c r="AC4" s="39"/>
       <c r="AD4" s="39"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>11</v>
@@ -16433,14 +16478,14 @@
         <v/>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>408</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="N5" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M5,Services!$A$1:$B$45,2,FALSE)),"",VLOOKUP(M5,Services!$A$1:$B$45,2,FALSE))</f>
@@ -16483,10 +16528,10 @@
       </c>
       <c r="AC5" s="39"/>
       <c r="AD5" s="39" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="40"/>
@@ -16551,7 +16596,7 @@
       <c r="AC6" s="39"/>
       <c r="AD6" s="39"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
@@ -16616,7 +16661,7 @@
       <c r="AC7" s="39"/>
       <c r="AD7" s="39"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="40"/>
@@ -16681,7 +16726,7 @@
       <c r="AC8" s="39"/>
       <c r="AD8" s="39"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="40"/>
@@ -16746,7 +16791,7 @@
       <c r="AC9" s="39"/>
       <c r="AD9" s="39"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="40"/>
@@ -16811,7 +16856,7 @@
       <c r="AC10" s="39"/>
       <c r="AD10" s="39"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="40"/>
@@ -16876,7 +16921,7 @@
       <c r="AC11" s="39"/>
       <c r="AD11" s="39"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
@@ -16941,7 +16986,7 @@
       <c r="AC12" s="39"/>
       <c r="AD12" s="39"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
@@ -17006,7 +17051,7 @@
       <c r="AC13" s="39"/>
       <c r="AD13" s="39"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
@@ -17071,7 +17116,7 @@
       <c r="AC14" s="39"/>
       <c r="AD14" s="39"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
@@ -17136,7 +17181,7 @@
       <c r="AC15" s="39"/>
       <c r="AD15" s="39"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
@@ -19425,7 +19470,7 @@
     <row r="62" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="V+L/i8oUq04NkKb3zfH4lYeKHQiCTuZI2/jdXoGDvwVIm29mxr5TRP+AArSWO+UWt8mlUT1udm1v3IU4rU59BQ==" saltValue="n/Gc2vQtAj269gutY0hN0Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19500,7 +19545,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -19541,7 +19586,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -19549,47 +19594,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="B4" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="B5" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B6" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="B7" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -19597,7 +19642,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -19605,7 +19650,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -19613,7 +19658,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -19621,7 +19666,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -19629,7 +19674,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -19637,7 +19682,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -19645,7 +19690,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -19653,7 +19698,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -19661,7 +19706,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -19669,7 +19714,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -19677,7 +19722,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -19685,7 +19730,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -19693,7 +19738,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -19701,7 +19746,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -19709,7 +19754,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -19717,7 +19762,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -19725,7 +19770,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -19733,7 +19778,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -19741,7 +19786,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -19749,7 +19794,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -19757,7 +19802,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -19765,7 +19810,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -19773,7 +19818,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -19781,7 +19826,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -19789,7 +19834,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -19797,7 +19842,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -19805,7 +19850,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -19813,7 +19858,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -19821,7 +19866,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -19829,7 +19874,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -19837,7 +19882,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -19845,7 +19890,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -19853,7 +19898,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -19861,7 +19906,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -19869,7 +19914,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -19877,7 +19922,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -19885,7 +19930,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -19893,7 +19938,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904070A-4AFE-C149-A158-8EB8DBF29D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DAAE3-3151-5F40-BC83-5C636D473F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="13" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Services" sheetId="7" state="hidden" r:id="rId6"/>
     <sheet name="Base Locations" sheetId="6" state="hidden" r:id="rId7"/>
     <sheet name="Region" sheetId="3" state="hidden" r:id="rId8"/>
-    <sheet name="Roles" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="Roles" sheetId="4" r:id="rId9"/>
     <sheet name="Validations" sheetId="10" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
@@ -42,9 +42,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1278,12 +1276,6 @@
   </si>
   <si>
     <t>York Magistrates' Court and Family Court</t>
-  </si>
-  <si>
-    <t>Senior Tribunal Caseworker</t>
-  </si>
-  <si>
-    <t>Tribunal Caseworker</t>
   </si>
   <si>
     <t>Primary Role</t>
@@ -3928,6 +3920,12 @@
   </si>
   <si>
     <t>Service8 ID</t>
+  </si>
+  <si>
+    <t>Senior Legal Caseworker</t>
+  </si>
+  <si>
+    <t>Legal Caseworker</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4491,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4501,24 +4511,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12904,7 +12902,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -12918,17 +12916,17 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B4" s="53">
         <v>2021</v>
@@ -12938,20 +12936,20 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47"/>
@@ -13022,7 +13020,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -13147,20 +13145,20 @@
     </row>
     <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
-      <c r="B4" s="72" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="76" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
       <c r="L4" s="67" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
@@ -13171,16 +13169,16 @@
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="V4" s="72" t="s">
-        <v>1202</v>
-      </c>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
+      <c r="V4" s="76" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="69"/>
       <c r="AF4" s="69"/>
@@ -13189,16 +13187,16 @@
     </row>
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="73" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="77" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -13211,16 +13209,16 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="75" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
+      <c r="V5" s="78" t="s">
+        <v>1201</v>
+      </c>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
     </row>
     <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -13255,16 +13253,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="76" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="B7" s="79" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -13277,29 +13275,29 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="76" t="s">
-        <v>1205</v>
-      </c>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
+      <c r="V7" s="79" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
     </row>
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="77" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="B8" s="73" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -13312,16 +13310,16 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="77" t="s">
-        <v>1207</v>
-      </c>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
+      <c r="V8" s="73" t="s">
+        <v>1205</v>
+      </c>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
     </row>
     <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -13376,16 +13374,16 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="77" t="s">
-        <v>1208</v>
-      </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
+      <c r="V10" s="73" t="s">
+        <v>1206</v>
+      </c>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
@@ -13554,16 +13552,16 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="71" t="s">
-        <v>1209</v>
-      </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
+      <c r="L16" s="74" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -13587,14 +13585,14 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -13618,16 +13616,16 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="78" t="s">
-        <v>1210</v>
-      </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
+      <c r="L18" s="80" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -13682,16 +13680,16 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="71" t="s">
-        <v>1211</v>
-      </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
+      <c r="L20" s="74" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
@@ -13715,14 +13713,14 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
@@ -13777,16 +13775,16 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="80" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
+      <c r="L23" s="72" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -13810,14 +13808,14 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
@@ -13987,40 +13985,40 @@
     </row>
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="77" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="B31" s="73" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="71" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
+      <c r="L31" s="74" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
-      <c r="V31" s="71" t="s">
-        <v>1215</v>
-      </c>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
+      <c r="V31" s="74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
     </row>
     <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -14034,68 +14032,68 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
     </row>
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="74" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="B33" s="71" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
     </row>
     <row r="34" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -14129,28 +14127,28 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="71" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
+      <c r="L35" s="74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
-      <c r="V35" s="74" t="s">
-        <v>1218</v>
-      </c>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
+      <c r="V35" s="71" t="s">
+        <v>1216</v>
+      </c>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
@@ -14164,24 +14162,24 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
@@ -14195,14 +14193,14 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -14226,26 +14224,26 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
-      <c r="V38" s="80" t="s">
-        <v>1211</v>
-      </c>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
+      <c r="V38" s="72" t="s">
+        <v>1209</v>
+      </c>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
@@ -14259,26 +14257,26 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
-      <c r="L39" s="71" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
+      <c r="L39" s="74" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="80"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="80"/>
-      <c r="AC39" s="80"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
@@ -14292,14 +14290,14 @@
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -14323,28 +14321,28 @@
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="71" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
+      <c r="L41" s="74" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="71" t="s">
-        <v>1221</v>
-      </c>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
+      <c r="V41" s="74" t="s">
+        <v>1219</v>
+      </c>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
     </row>
     <row r="42" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
@@ -14358,24 +14356,24 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
     </row>
     <row r="43" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
@@ -14389,26 +14387,26 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
-      <c r="L43" s="80" t="s">
-        <v>1222</v>
-      </c>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
+      <c r="L43" s="72" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
     </row>
     <row r="44" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
@@ -14422,26 +14420,26 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="74" t="s">
-        <v>1223</v>
-      </c>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
+      <c r="V44" s="71" t="s">
+        <v>1221</v>
+      </c>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
@@ -14455,24 +14453,24 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
     </row>
     <row r="46" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
@@ -14486,16 +14484,16 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="71" t="s">
-        <v>1224</v>
-      </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
+      <c r="L46" s="74" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -14509,26 +14507,26 @@
     </row>
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="74" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="B47" s="71" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -14542,24 +14540,24 @@
     </row>
     <row r="48" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -14573,14 +14571,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -14604,14 +14602,14 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -14635,14 +14633,14 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -15797,6 +15795,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ni3oRhRFSHLqcHPeDMM9oJPhO6WfMxTCuA0QUr0aYxZ5GIVg5SnJ0DmCKugqbXaRKsIRpp0xaviZSFtXtsEQYA==" saltValue="uU6zNIz4+Gs4uisLnne5sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="L20:S21"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="L16:S17"/>
+    <mergeCell ref="L18:S18"/>
     <mergeCell ref="B47:I51"/>
     <mergeCell ref="L23:S24"/>
     <mergeCell ref="B31:I31"/>
@@ -15812,18 +15822,6 @@
     <mergeCell ref="L43:S45"/>
     <mergeCell ref="V44:AC45"/>
     <mergeCell ref="L46:S48"/>
-    <mergeCell ref="L20:S21"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="L18:S18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{5E7C7A05-D050-4790-AD5A-2C904F987D3F}"/>
@@ -15857,49 +15855,49 @@
   <sheetData>
     <row r="1" spans="1:4" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15910,7 +15908,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15921,16 +15919,16 @@
         <v>51</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="63" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15939,16 +15937,16 @@
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="63" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="63" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -15959,30 +15957,30 @@
         <v>51</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="63" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -15993,10 +15991,10 @@
         <v>51</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16005,7 +16003,7 @@
       </c>
       <c r="B14" s="57"/>
       <c r="C14" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16014,7 +16012,7 @@
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16023,7 +16021,7 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16032,7 +16030,7 @@
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16041,7 +16039,7 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16050,7 +16048,7 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -16059,7 +16057,7 @@
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -16068,21 +16066,21 @@
       </c>
       <c r="B21" s="57"/>
       <c r="C21" s="63" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D21" s="62" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="55" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B22" s="56" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -16099,8 +16097,8 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16139,111 +16137,111 @@
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>1107</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>1109</v>
       </c>
       <c r="D1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>54</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M1" s="54" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>1234</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="P1" s="29" t="s">
         <v>1235</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="Q1" s="37" t="s">
         <v>1236</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>1237</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="S1" s="36" t="s">
         <v>1238</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>1239</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>1240</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="V1" s="28" t="s">
         <v>1241</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>1242</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>1243</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>1244</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>1245</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>1246</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>1247</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>1249</v>
       </c>
       <c r="AC1" s="36" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="54" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AE1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AF1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>6</v>
@@ -16268,7 +16266,7 @@
         <v>52</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>409</v>
+        <v>1249</v>
       </c>
       <c r="L2" s="39"/>
       <c r="M2" s="39" t="s">
@@ -16315,7 +16313,7 @@
       </c>
       <c r="AC2" s="39"/>
       <c r="AD2" s="39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -16450,13 +16448,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>11</v>
@@ -16478,14 +16476,14 @@
         <v/>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>408</v>
+        <v>1248</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="N5" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(M5,Services!$A$1:$B$45,2,FALSE)),"",VLOOKUP(M5,Services!$A$1:$B$45,2,FALSE))</f>
@@ -16528,7 +16526,7 @@
       </c>
       <c r="AC5" s="39"/>
       <c r="AD5" s="39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -19545,7 +19543,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -19586,7 +19584,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -19594,47 +19592,47 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B6" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -19642,7 +19640,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -19650,7 +19648,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -19658,7 +19656,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -19666,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -19674,7 +19672,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -19682,7 +19680,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -19690,7 +19688,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -19698,7 +19696,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -19706,7 +19704,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -19714,7 +19712,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -19722,7 +19720,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -19730,7 +19728,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -19738,7 +19736,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -19746,7 +19744,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -19754,7 +19752,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -19762,7 +19760,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -19770,7 +19768,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -19778,7 +19776,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -19786,7 +19784,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -19794,7 +19792,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -19802,7 +19800,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -19810,7 +19808,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -19818,7 +19816,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -19826,7 +19824,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -19834,7 +19832,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -19842,7 +19840,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -19850,7 +19848,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -19858,7 +19856,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -19866,7 +19864,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -19874,7 +19872,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -19882,7 +19880,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -19890,7 +19888,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -19898,7 +19896,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -19906,7 +19904,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -19914,7 +19912,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -19922,7 +19920,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -19930,7 +19928,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -19938,7 +19936,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -19972,22 +19970,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20002,10 +20000,10 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20020,10 +20018,10 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20037,13 +20035,13 @@
         <v>65</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20057,13 +20055,13 @@
         <v>66</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20077,13 +20075,13 @@
         <v>66</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20097,13 +20095,13 @@
         <v>66</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="F7" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20118,10 +20116,10 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20135,13 +20133,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20155,13 +20153,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20175,13 +20173,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20195,13 +20193,13 @@
         <v>65</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20215,13 +20213,13 @@
         <v>67</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20235,13 +20233,13 @@
         <v>66</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20255,13 +20253,13 @@
         <v>66</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20275,13 +20273,13 @@
         <v>65</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20295,13 +20293,13 @@
         <v>65</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20315,13 +20313,13 @@
         <v>66</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20335,13 +20333,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20355,13 +20353,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20375,13 +20373,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20395,13 +20393,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20415,13 +20413,13 @@
         <v>67</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20435,13 +20433,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20455,13 +20453,13 @@
         <v>5</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20475,13 +20473,13 @@
         <v>5</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20495,13 +20493,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20515,13 +20513,13 @@
         <v>5</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20535,13 +20533,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20555,13 +20553,13 @@
         <v>67</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20575,13 +20573,13 @@
         <v>67</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20595,13 +20593,13 @@
         <v>67</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20615,13 +20613,13 @@
         <v>67</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20635,13 +20633,13 @@
         <v>67</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20655,13 +20653,13 @@
         <v>67</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20676,10 +20674,10 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20693,13 +20691,13 @@
         <v>65</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20713,13 +20711,13 @@
         <v>67</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20727,19 +20725,19 @@
         <v>106</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -20753,13 +20751,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20773,13 +20771,13 @@
         <v>65</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20793,13 +20791,13 @@
         <v>6</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20813,13 +20811,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20833,13 +20831,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -20853,13 +20851,13 @@
         <v>4</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20873,13 +20871,13 @@
         <v>6</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20893,13 +20891,13 @@
         <v>66</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20913,13 +20911,13 @@
         <v>66</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20933,13 +20931,13 @@
         <v>66</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20953,13 +20951,13 @@
         <v>66</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20973,13 +20971,13 @@
         <v>65</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20993,13 +20991,13 @@
         <v>65</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21013,13 +21011,13 @@
         <v>65</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21033,13 +21031,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21053,13 +21051,13 @@
         <v>4</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21073,13 +21071,13 @@
         <v>67</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21093,13 +21091,13 @@
         <v>67</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21113,13 +21111,13 @@
         <v>67</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21133,13 +21131,13 @@
         <v>66</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21154,10 +21152,10 @@
       </c>
       <c r="D60" s="15"/>
       <c r="E60" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21171,13 +21169,13 @@
         <v>66</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21191,13 +21189,13 @@
         <v>66</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21211,13 +21209,13 @@
         <v>66</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21231,13 +21229,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21251,13 +21249,13 @@
         <v>66</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21271,13 +21269,13 @@
         <v>66</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21292,10 +21290,10 @@
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21310,10 +21308,10 @@
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21328,10 +21326,10 @@
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="18" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21346,10 +21344,10 @@
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="18" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21363,13 +21361,13 @@
         <v>67</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21383,13 +21381,13 @@
         <v>67</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21404,10 +21402,10 @@
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21421,13 +21419,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21441,13 +21439,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21461,13 +21459,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21481,13 +21479,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21501,13 +21499,13 @@
         <v>66</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21521,13 +21519,13 @@
         <v>66</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21541,13 +21539,13 @@
         <v>65</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21561,13 +21559,13 @@
         <v>67</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21581,13 +21579,13 @@
         <v>67</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21601,13 +21599,13 @@
         <v>67</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21621,13 +21619,13 @@
         <v>5</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21641,13 +21639,13 @@
         <v>4</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21661,13 +21659,13 @@
         <v>4</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21681,13 +21679,13 @@
         <v>66</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21701,13 +21699,13 @@
         <v>5</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21721,13 +21719,13 @@
         <v>5</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21741,13 +21739,13 @@
         <v>66</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21761,13 +21759,13 @@
         <v>67</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21781,13 +21779,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21801,13 +21799,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21822,10 +21820,10 @@
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21839,13 +21837,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21859,13 +21857,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -21879,13 +21877,13 @@
         <v>66</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21899,13 +21897,13 @@
         <v>5</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21919,13 +21917,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21939,13 +21937,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -21953,19 +21951,19 @@
         <v>167</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21979,13 +21977,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22000,10 +21998,10 @@
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="18" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22017,13 +22015,13 @@
         <v>6</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22037,13 +22035,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22057,13 +22055,13 @@
         <v>4</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22077,13 +22075,13 @@
         <v>66</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22097,13 +22095,13 @@
         <v>4</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22117,13 +22115,13 @@
         <v>4</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22138,10 +22136,10 @@
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22156,10 +22154,10 @@
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22172,10 +22170,10 @@
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="18" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22189,13 +22187,13 @@
         <v>4</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22209,13 +22207,13 @@
         <v>4</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22229,13 +22227,13 @@
         <v>65</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22249,13 +22247,13 @@
         <v>65</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22269,13 +22267,13 @@
         <v>4</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22289,13 +22287,13 @@
         <v>66</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22309,13 +22307,13 @@
         <v>4</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22329,13 +22327,13 @@
         <v>6</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22350,10 +22348,10 @@
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="18" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22368,10 +22366,10 @@
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22385,13 +22383,13 @@
         <v>65</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E123" s="18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22405,13 +22403,13 @@
         <v>65</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E124" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22425,13 +22423,13 @@
         <v>66</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E125" s="18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22445,13 +22443,13 @@
         <v>6</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E126" s="18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22465,13 +22463,13 @@
         <v>6</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22485,13 +22483,13 @@
         <v>66</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22505,13 +22503,13 @@
         <v>66</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22526,10 +22524,10 @@
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="18" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22543,13 +22541,13 @@
         <v>4</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22563,13 +22561,13 @@
         <v>6</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22583,13 +22581,13 @@
         <v>4</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22603,13 +22601,13 @@
         <v>66</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22623,13 +22621,13 @@
         <v>66</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E135" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22643,13 +22641,13 @@
         <v>4</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22663,13 +22661,13 @@
         <v>65</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E137" s="18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22684,10 +22682,10 @@
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="18" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22701,13 +22699,13 @@
         <v>4</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22721,13 +22719,13 @@
         <v>5</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22741,13 +22739,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E141" s="18" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22761,13 +22759,13 @@
         <v>66</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E142" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22781,13 +22779,13 @@
         <v>66</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22801,13 +22799,13 @@
         <v>4</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22821,13 +22819,13 @@
         <v>66</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22841,13 +22839,13 @@
         <v>66</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22861,13 +22859,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E147" s="18" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22881,13 +22879,13 @@
         <v>6</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22901,13 +22899,13 @@
         <v>6</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -22921,13 +22919,13 @@
         <v>66</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22941,13 +22939,13 @@
         <v>4</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22962,10 +22960,10 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="18" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -22980,10 +22978,10 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="18" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -22997,13 +22995,13 @@
         <v>66</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23017,13 +23015,13 @@
         <v>66</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23037,13 +23035,13 @@
         <v>66</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23057,13 +23055,13 @@
         <v>65</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23077,13 +23075,13 @@
         <v>65</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23097,13 +23095,13 @@
         <v>4</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23117,13 +23115,13 @@
         <v>5</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23137,13 +23135,13 @@
         <v>66</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23157,13 +23155,13 @@
         <v>4</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23177,13 +23175,13 @@
         <v>4</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23197,13 +23195,13 @@
         <v>6</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23217,13 +23215,13 @@
         <v>6</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23237,13 +23235,13 @@
         <v>67</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23257,13 +23255,13 @@
         <v>67</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23277,13 +23275,13 @@
         <v>4</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F168" s="13" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23297,13 +23295,13 @@
         <v>4</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23317,13 +23315,13 @@
         <v>6</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23337,13 +23335,13 @@
         <v>6</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F171" s="13" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23357,13 +23355,13 @@
         <v>6</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E172" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23377,13 +23375,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23397,13 +23395,13 @@
         <v>6</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23417,13 +23415,13 @@
         <v>5</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E175" s="18" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23437,13 +23435,13 @@
         <v>5</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E176" s="18" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F176" s="13" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23457,13 +23455,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F177" s="13" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23477,13 +23475,13 @@
         <v>66</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F178" s="13" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23497,13 +23495,13 @@
         <v>67</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23517,13 +23515,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23537,13 +23535,13 @@
         <v>5</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23557,13 +23555,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23577,13 +23575,13 @@
         <v>67</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23597,13 +23595,13 @@
         <v>67</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23617,13 +23615,13 @@
         <v>67</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23638,10 +23636,10 @@
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="18" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23656,10 +23654,10 @@
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23674,10 +23672,10 @@
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="18" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23691,13 +23689,13 @@
         <v>4</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -23711,13 +23709,13 @@
         <v>5</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23731,13 +23729,13 @@
         <v>66</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F191" s="13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23751,13 +23749,13 @@
         <v>66</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23771,13 +23769,13 @@
         <v>66</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23791,13 +23789,13 @@
         <v>66</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23811,13 +23809,13 @@
         <v>66</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23831,13 +23829,13 @@
         <v>67</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23851,13 +23849,13 @@
         <v>67</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E197" s="18" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23871,13 +23869,13 @@
         <v>67</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23891,13 +23889,13 @@
         <v>67</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E199" s="18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23911,13 +23909,13 @@
         <v>67</v>
       </c>
       <c r="D200" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23931,13 +23929,13 @@
         <v>67</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F201" s="13" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -23951,13 +23949,13 @@
         <v>5</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E202" s="18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -23971,13 +23969,13 @@
         <v>66</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -23992,10 +23990,10 @@
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24009,13 +24007,13 @@
         <v>66</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E205" s="18" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24029,13 +24027,13 @@
         <v>66</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E206" s="18" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24050,10 +24048,10 @@
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="18" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24067,13 +24065,13 @@
         <v>6</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E208" s="18" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24087,13 +24085,13 @@
         <v>66</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E209" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24107,13 +24105,13 @@
         <v>66</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E210" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24128,10 +24126,10 @@
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24145,13 +24143,13 @@
         <v>6</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E212" s="18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24165,13 +24163,13 @@
         <v>6</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24185,13 +24183,13 @@
         <v>6</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E214" s="18" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24205,13 +24203,13 @@
         <v>6</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E215" s="18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24226,10 +24224,10 @@
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24244,10 +24242,10 @@
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24262,10 +24260,10 @@
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F218" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24280,10 +24278,10 @@
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24297,13 +24295,13 @@
         <v>65</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E220" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24317,13 +24315,13 @@
         <v>6</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E221" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24337,13 +24335,13 @@
         <v>6</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E222" s="18" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24357,13 +24355,13 @@
         <v>65</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E223" s="18" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24377,13 +24375,13 @@
         <v>5</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E224" s="18" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F224" s="13" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24397,13 +24395,13 @@
         <v>6</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E225" s="18" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F225" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -24417,13 +24415,13 @@
         <v>5</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E226" s="18" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F226" s="13" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -24437,13 +24435,13 @@
         <v>5</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E227" s="18" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F227" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -24457,13 +24455,13 @@
         <v>5</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E228" s="18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F228" s="13" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24477,13 +24475,13 @@
         <v>66</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E229" s="18" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F229" s="13" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24497,13 +24495,13 @@
         <v>66</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E230" s="18" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F230" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24517,13 +24515,13 @@
         <v>66</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E231" s="18" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F231" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24537,13 +24535,13 @@
         <v>5</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E232" s="18" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F232" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24557,13 +24555,13 @@
         <v>5</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E233" s="18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F233" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24577,13 +24575,13 @@
         <v>66</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E234" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24597,13 +24595,13 @@
         <v>66</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E235" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F235" s="13" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24617,13 +24615,13 @@
         <v>66</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E236" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F236" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24637,13 +24635,13 @@
         <v>66</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E237" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F237" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24657,13 +24655,13 @@
         <v>6</v>
       </c>
       <c r="D238" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F238" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24677,13 +24675,13 @@
         <v>65</v>
       </c>
       <c r="D239" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E239" s="18" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F239" s="13" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24697,13 +24695,13 @@
         <v>65</v>
       </c>
       <c r="D240" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E240" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F240" s="13" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24717,13 +24715,13 @@
         <v>65</v>
       </c>
       <c r="D241" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F241" s="13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24738,10 +24736,10 @@
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F242" s="13" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24755,13 +24753,13 @@
         <v>65</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F243" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24776,10 +24774,10 @@
       </c>
       <c r="D244" s="15"/>
       <c r="E244" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F244" s="13" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24793,13 +24791,13 @@
         <v>65</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E245" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F245" s="13" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24813,13 +24811,13 @@
         <v>65</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E246" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F246" s="13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24834,10 +24832,10 @@
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F247" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24851,13 +24849,13 @@
         <v>67</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E248" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F248" s="13" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24871,13 +24869,13 @@
         <v>67</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E249" s="18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F249" s="13" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -24891,13 +24889,13 @@
         <v>67</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E250" s="18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F250" s="13" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24911,13 +24909,13 @@
         <v>66</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E251" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F251" s="13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24931,13 +24929,13 @@
         <v>66</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E252" s="18" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F252" s="13" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24951,13 +24949,13 @@
         <v>66</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E253" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -24971,13 +24969,13 @@
         <v>66</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E254" s="18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F254" s="13" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -24991,13 +24989,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E255" s="18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F255" s="13" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25011,13 +25009,13 @@
         <v>67</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E256" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F256" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25031,13 +25029,13 @@
         <v>67</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E257" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F257" s="13" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25051,13 +25049,13 @@
         <v>4</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E258" s="18" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F258" s="13" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25071,13 +25069,13 @@
         <v>4</v>
       </c>
       <c r="D259" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E259" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F259" s="13" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25091,13 +25089,13 @@
         <v>4</v>
       </c>
       <c r="D260" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F260" s="13" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25112,10 +25110,10 @@
       </c>
       <c r="D261" s="9"/>
       <c r="E261" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F261" s="13" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25129,13 +25127,13 @@
         <v>65</v>
       </c>
       <c r="D262" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E262" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F262" s="13" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25149,13 +25147,13 @@
         <v>6</v>
       </c>
       <c r="D263" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E263" s="18" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F263" s="13" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25169,13 +25167,13 @@
         <v>67</v>
       </c>
       <c r="D264" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E264" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F264" s="13" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25189,13 +25187,13 @@
         <v>66</v>
       </c>
       <c r="D265" s="15" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E265" s="18" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F265" s="13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25209,13 +25207,13 @@
         <v>6</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E266" s="18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F266" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25229,13 +25227,13 @@
         <v>6</v>
       </c>
       <c r="D267" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E267" s="18" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25249,13 +25247,13 @@
         <v>6</v>
       </c>
       <c r="D268" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E268" s="18" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F268" s="13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25269,13 +25267,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E269" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F269" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25289,13 +25287,13 @@
         <v>6</v>
       </c>
       <c r="D270" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E270" s="18" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F270" s="13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25309,13 +25307,13 @@
         <v>4</v>
       </c>
       <c r="D271" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E271" s="18" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F271" s="13" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25329,13 +25327,13 @@
         <v>6</v>
       </c>
       <c r="D272" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E272" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F272" s="18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25349,13 +25347,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E273" s="18" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F273" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25369,13 +25367,13 @@
         <v>65</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E274" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F274" s="13" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25389,13 +25387,13 @@
         <v>66</v>
       </c>
       <c r="D275" s="15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E275" s="18" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F275" s="13" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25409,13 +25407,13 @@
         <v>4</v>
       </c>
       <c r="D276" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E276" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F276" s="13" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25429,13 +25427,13 @@
         <v>66</v>
       </c>
       <c r="D277" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E277" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F277" s="13" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25449,13 +25447,13 @@
         <v>66</v>
       </c>
       <c r="D278" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E278" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F278" s="13" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25469,13 +25467,13 @@
         <v>67</v>
       </c>
       <c r="D279" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E279" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F279" s="13" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25489,13 +25487,13 @@
         <v>5</v>
       </c>
       <c r="D280" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E280" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F280" s="13" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25509,13 +25507,13 @@
         <v>66</v>
       </c>
       <c r="D281" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E281" s="18" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F281" s="13" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25529,13 +25527,13 @@
         <v>66</v>
       </c>
       <c r="D282" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E282" s="18" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F282" s="13" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25550,10 +25548,10 @@
       </c>
       <c r="D283" s="15"/>
       <c r="E283" s="18" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F283" s="13" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25567,13 +25565,13 @@
         <v>67</v>
       </c>
       <c r="D284" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E284" s="18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F284" s="13" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25587,13 +25585,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285" s="18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F285" s="13" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25607,13 +25605,13 @@
         <v>4</v>
       </c>
       <c r="D286" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E286" s="18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25627,13 +25625,13 @@
         <v>6</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E287" s="18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F287" s="18" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25647,13 +25645,13 @@
         <v>4</v>
       </c>
       <c r="D288" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E288" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25668,10 +25666,10 @@
       </c>
       <c r="D289" s="15"/>
       <c r="E289" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F289" s="13" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25686,10 +25684,10 @@
       </c>
       <c r="D290" s="15"/>
       <c r="E290" s="18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F290" s="13" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25704,10 +25702,10 @@
       </c>
       <c r="D291" s="15"/>
       <c r="E291" s="18" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F291" s="13" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25721,13 +25719,13 @@
         <v>65</v>
       </c>
       <c r="D292" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E292" s="18" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F292" s="13" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25741,13 +25739,13 @@
         <v>65</v>
       </c>
       <c r="D293" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E293" s="18" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F293" s="13" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -25761,13 +25759,13 @@
         <v>67</v>
       </c>
       <c r="D294" s="15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F294" s="13" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25781,13 +25779,13 @@
         <v>65</v>
       </c>
       <c r="D295" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E295" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F295" s="13" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25801,13 +25799,13 @@
         <v>65</v>
       </c>
       <c r="D296" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E296" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F296" s="13" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25821,13 +25819,13 @@
         <v>4</v>
       </c>
       <c r="D297" s="15" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E297" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F297" s="13" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25841,13 +25839,13 @@
         <v>6</v>
       </c>
       <c r="D298" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F298" s="13" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25861,13 +25859,13 @@
         <v>6</v>
       </c>
       <c r="D299" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F299" s="13" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25881,13 +25879,13 @@
         <v>5</v>
       </c>
       <c r="D300" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E300" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F300" s="13" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25901,13 +25899,13 @@
         <v>4</v>
       </c>
       <c r="D301" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E301" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F301" s="13" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25921,13 +25919,13 @@
         <v>65</v>
       </c>
       <c r="D302" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E302" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F302" s="13" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25941,13 +25939,13 @@
         <v>65</v>
       </c>
       <c r="D303" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F303" s="13" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -25961,13 +25959,13 @@
         <v>65</v>
       </c>
       <c r="D304" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E304" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F304" s="13" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -25981,13 +25979,13 @@
         <v>4</v>
       </c>
       <c r="D305" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E305" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F305" s="13" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26001,13 +25999,13 @@
         <v>4</v>
       </c>
       <c r="D306" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E306" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F306" s="13" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26021,13 +26019,13 @@
         <v>6</v>
       </c>
       <c r="D307" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E307" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F307" s="13" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26041,13 +26039,13 @@
         <v>5</v>
       </c>
       <c r="D308" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E308" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F308" s="13" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26061,13 +26059,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E309" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F309" s="13" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26081,13 +26079,13 @@
         <v>4</v>
       </c>
       <c r="D310" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E310" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F310" s="13" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26101,13 +26099,13 @@
         <v>67</v>
       </c>
       <c r="D311" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E311" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F311" s="13" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26121,13 +26119,13 @@
         <v>5</v>
       </c>
       <c r="D312" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E312" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F312" s="13" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26141,13 +26139,13 @@
         <v>5</v>
       </c>
       <c r="D313" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F313" s="13" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26161,13 +26159,13 @@
         <v>66</v>
       </c>
       <c r="D314" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F314" s="13" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26181,13 +26179,13 @@
         <v>66</v>
       </c>
       <c r="D315" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E315" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F315" s="13" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -26201,13 +26199,13 @@
         <v>5</v>
       </c>
       <c r="D316" s="15" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E316" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F316" s="13" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26222,10 +26220,10 @@
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F317" s="13" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26239,13 +26237,13 @@
         <v>67</v>
       </c>
       <c r="D318" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E318" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F318" s="13" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26259,13 +26257,13 @@
         <v>65</v>
       </c>
       <c r="D319" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E319" s="18" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F319" s="13" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26279,13 +26277,13 @@
         <v>4</v>
       </c>
       <c r="D320" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E320" s="18" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F320" s="13" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26299,13 +26297,13 @@
         <v>4</v>
       </c>
       <c r="D321" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E321" s="18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F321" s="13" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26319,13 +26317,13 @@
         <v>65</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E322" s="18" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F322" s="13" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26339,13 +26337,13 @@
         <v>67</v>
       </c>
       <c r="D323" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F323" s="13" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26359,13 +26357,13 @@
         <v>4</v>
       </c>
       <c r="D324" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E324" s="18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F324" s="13" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26379,13 +26377,13 @@
         <v>4</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E325" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F325" s="13" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26399,13 +26397,13 @@
         <v>4</v>
       </c>
       <c r="D326" s="15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E326" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F326" s="13" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26419,13 +26417,13 @@
         <v>65</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E327" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F327" s="13" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26439,13 +26437,13 @@
         <v>67</v>
       </c>
       <c r="D328" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E328" s="18" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F328" s="13" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26459,13 +26457,13 @@
         <v>5</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E329" s="18" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F329" s="13" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26479,13 +26477,13 @@
         <v>5</v>
       </c>
       <c r="D330" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E330" s="18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F330" s="13" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26499,13 +26497,13 @@
         <v>5</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E331" s="18" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F331" s="13" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26519,13 +26517,13 @@
         <v>4</v>
       </c>
       <c r="D332" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E332" s="18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F332" s="13" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26539,13 +26537,13 @@
         <v>4</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E333" s="18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F333" s="13" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26559,13 +26557,13 @@
         <v>5</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E334" s="18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F334" s="13" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26579,13 +26577,13 @@
         <v>66</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E335" s="18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F335" s="13" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -26600,10 +26598,10 @@
       </c>
       <c r="D336" s="9"/>
       <c r="E336" s="18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F336" s="13" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26617,13 +26615,13 @@
         <v>66</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E337" s="18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F337" s="13" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -26637,13 +26635,13 @@
         <v>65</v>
       </c>
       <c r="D338" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E338" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F338" s="13" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26657,13 +26655,13 @@
         <v>6</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F339" s="13" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26677,13 +26675,13 @@
         <v>6</v>
       </c>
       <c r="D340" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E340" s="18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F340" s="13" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -26697,13 +26695,13 @@
         <v>6</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F341" s="13" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -27280,9 +27278,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27292,7 +27288,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>408</v>
+        <v>1248</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -27300,14 +27296,13 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>409</v>
+        <v>1249</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K9Ci/eHmkmskFS0u1ZcnQkRZSqVBH/Kvod5Cg143QmMMqKBzxu71t7mKY0rKC7jAIRToE1wAYtCUnAacyc3hTg==" saltValue="vAGcL88qkz3LKuOeKothwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DAAE3-3151-5F40-BC83-5C636D473F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C8869-2F14-B841-A77C-0FCA2583DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="13" r:id="rId1"/>
@@ -42,8 +42,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3850,9 +3853,6 @@
     <t>c. From the VERSION tab, check if the version of the downloaded template is different from your last locally stored file.  For example, if the original template was called ‘Staff data upload template V1.0’, it might now have changed to ‘V2.0’.</t>
   </si>
   <si>
-    <t>v1.08</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://github.com/hmcts/rpx-xui-approve-org/blob/master/staff/Staff_Data_Upload_Template.xlsx. </t>
   </si>
   <si>
@@ -3926,6 +3926,9 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -4491,19 +4494,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4511,12 +4502,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12887,8 +12890,8 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12949,7 +12952,7 @@
         <v>1190</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1224</v>
+        <v>1249</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47"/>
@@ -13003,7 +13006,6 @@
     <row r="48" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="n+iim3X10LvXVQcHODFItPo/AItQfxFxUPk+T6EDoROWkSsMhhSzSJXyDJdOozzM2fOZJK9NOORq8/+QXhzTNQ==" saltValue="YSSdOYzc3EqahHaaEkm++g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13145,16 +13147,16 @@
     </row>
     <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="72" t="s">
         <v>1198</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
       <c r="L4" s="67" t="s">
@@ -13169,16 +13171,16 @@
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="72" t="s">
         <v>1200</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="69"/>
       <c r="AF4" s="69"/>
@@ -13187,16 +13189,16 @@
     </row>
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="77" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="73" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -13209,16 +13211,16 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="78" t="s">
+      <c r="V5" s="75" t="s">
         <v>1201</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
     </row>
     <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -13253,16 +13255,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="76" t="s">
         <v>1202</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -13275,29 +13277,29 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="76" t="s">
         <v>1203</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
     </row>
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="77" t="s">
         <v>1204</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -13310,16 +13312,16 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="73" t="s">
+      <c r="V8" s="77" t="s">
         <v>1205</v>
       </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
     </row>
     <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -13374,16 +13376,16 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="73" t="s">
+      <c r="V10" s="77" t="s">
         <v>1206</v>
       </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
@@ -13552,16 +13554,16 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="71" t="s">
         <v>1207</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -13585,14 +13587,14 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -13616,16 +13618,16 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="78" t="s">
         <v>1208</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -13680,16 +13682,16 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="71" t="s">
         <v>1209</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
@@ -13713,14 +13715,14 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
@@ -13775,16 +13777,16 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="80" t="s">
         <v>1210</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -13808,14 +13810,14 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
@@ -13985,40 +13987,40 @@
     </row>
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="77" t="s">
         <v>1211</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="71" t="s">
         <v>1212</v>
       </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
-      <c r="V31" s="74" t="s">
+      <c r="V31" s="71" t="s">
         <v>1213</v>
       </c>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
     </row>
     <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -14032,68 +14034,68 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
     </row>
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="74" t="s">
         <v>1214</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
     </row>
     <row r="34" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -14127,28 +14129,28 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="74" t="s">
+      <c r="L35" s="71" t="s">
         <v>1215</v>
       </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
-      <c r="V35" s="71" t="s">
+      <c r="V35" s="74" t="s">
         <v>1216</v>
       </c>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
@@ -14162,24 +14164,24 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
@@ -14193,14 +14195,14 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -14224,26 +14226,26 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="80" t="s">
         <v>1209</v>
       </c>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="80"/>
+      <c r="Z38" s="80"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="80"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
@@ -14257,26 +14259,26 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="71" t="s">
         <v>1217</v>
       </c>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="80"/>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="80"/>
+      <c r="AB39" s="80"/>
+      <c r="AC39" s="80"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
@@ -14290,14 +14292,14 @@
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -14321,28 +14323,28 @@
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="74" t="s">
+      <c r="L41" s="71" t="s">
         <v>1218</v>
       </c>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="71"/>
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="74" t="s">
+      <c r="V41" s="71" t="s">
         <v>1219</v>
       </c>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
+      <c r="W41" s="71"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
     </row>
     <row r="42" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
@@ -14356,24 +14358,24 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
     </row>
     <row r="43" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
@@ -14387,26 +14389,26 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
-      <c r="L43" s="72" t="s">
+      <c r="L43" s="80" t="s">
         <v>1220</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
     </row>
     <row r="44" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
@@ -14420,26 +14422,26 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="80"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="74" t="s">
         <v>1221</v>
       </c>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
@@ -14453,24 +14455,24 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="80"/>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
     </row>
     <row r="46" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
@@ -14484,16 +14486,16 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="74" t="s">
+      <c r="L46" s="71" t="s">
         <v>1222</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -14507,26 +14509,26 @@
     </row>
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="74" t="s">
         <v>1223</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="71"/>
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -14540,24 +14542,24 @@
     </row>
     <row r="48" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -14571,14 +14573,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="74"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -14602,14 +14604,14 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -14633,14 +14635,14 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -15795,18 +15797,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ni3oRhRFSHLqcHPeDMM9oJPhO6WfMxTCuA0QUr0aYxZ5GIVg5SnJ0DmCKugqbXaRKsIRpp0xaviZSFtXtsEQYA==" saltValue="uU6zNIz4+Gs4uisLnne5sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="L20:S21"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="L18:S18"/>
     <mergeCell ref="B47:I51"/>
     <mergeCell ref="L23:S24"/>
     <mergeCell ref="B31:I31"/>
@@ -15822,6 +15812,18 @@
     <mergeCell ref="L43:S45"/>
     <mergeCell ref="V44:AC45"/>
     <mergeCell ref="L46:S48"/>
+    <mergeCell ref="L20:S21"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="L16:S17"/>
+    <mergeCell ref="L18:S18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{5E7C7A05-D050-4790-AD5A-2C904F987D3F}"/>
@@ -16097,7 +16099,7 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -16173,52 +16175,52 @@
         <v>409</v>
       </c>
       <c r="M1" s="54" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>1232</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="34" t="s">
         <v>1233</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="29" t="s">
         <v>1234</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="37" t="s">
         <v>1235</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="29" t="s">
         <v>1236</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="36" t="s">
         <v>1237</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="29" t="s">
         <v>1238</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="U1" s="36" t="s">
         <v>1239</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="28" t="s">
         <v>1240</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="36" t="s">
         <v>1241</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="28" t="s">
         <v>1242</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="36" t="s">
         <v>1243</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="28" t="s">
         <v>1244</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="36" t="s">
         <v>1245</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="28" t="s">
         <v>1246</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>1247</v>
       </c>
       <c r="AC1" s="36" t="s">
         <v>2</v>
@@ -16227,21 +16229,21 @@
         <v>1110</v>
       </c>
       <c r="AE1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AF1" t="s">
         <v>1230</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>1226</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>1227</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>6</v>
@@ -16266,7 +16268,7 @@
         <v>52</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="L2" s="39"/>
       <c r="M2" s="39" t="s">
@@ -16448,13 +16450,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>11</v>
@@ -16479,7 +16481,7 @@
         <v>1185</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
@@ -27288,7 +27290,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -27296,7 +27298,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47C8869-2F14-B841-A77C-0FCA2583DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DAAE3-3151-5F40-BC83-5C636D473F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="13" r:id="rId1"/>
@@ -42,11 +42,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3853,6 +3850,9 @@
     <t>c. From the VERSION tab, check if the version of the downloaded template is different from your last locally stored file.  For example, if the original template was called ‘Staff data upload template V1.0’, it might now have changed to ‘V2.0’.</t>
   </si>
   <si>
+    <t>v1.08</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/hmcts/rpx-xui-approve-org/blob/master/staff/Staff_Data_Upload_Template.xlsx. </t>
   </si>
   <si>
@@ -3926,9 +3926,6 @@
   </si>
   <si>
     <t>Legal Caseworker</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -4494,7 +4491,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4502,24 +4511,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12890,8 +12887,8 @@
   </sheetPr>
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12952,7 +12949,7 @@
         <v>1190</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>1249</v>
+        <v>1224</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47"/>
@@ -13006,6 +13003,7 @@
     <row r="48" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="n+iim3X10LvXVQcHODFItPo/AItQfxFxUPk+T6EDoROWkSsMhhSzSJXyDJdOozzM2fOZJK9NOORq8/+QXhzTNQ==" saltValue="YSSdOYzc3EqahHaaEkm++g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13147,16 +13145,16 @@
     </row>
     <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="68"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="76" t="s">
         <v>1198</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="68"/>
       <c r="K4" s="68"/>
       <c r="L4" s="67" t="s">
@@ -13171,16 +13169,16 @@
       <c r="S4" s="68"/>
       <c r="T4" s="68"/>
       <c r="U4" s="68"/>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="76" t="s">
         <v>1200</v>
       </c>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
       <c r="AD4" s="69"/>
       <c r="AE4" s="69"/>
       <c r="AF4" s="69"/>
@@ -13189,16 +13187,16 @@
     </row>
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="73" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="B5" s="77" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -13211,16 +13209,16 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="75" t="s">
+      <c r="V5" s="78" t="s">
         <v>1201</v>
       </c>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
     </row>
     <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -13255,16 +13253,16 @@
     </row>
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="79" t="s">
         <v>1202</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -13277,29 +13275,29 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="76" t="s">
+      <c r="V7" s="79" t="s">
         <v>1203</v>
       </c>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
     </row>
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="73" t="s">
         <v>1204</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -13312,16 +13310,16 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="77" t="s">
+      <c r="V8" s="73" t="s">
         <v>1205</v>
       </c>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
     </row>
     <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -13376,16 +13374,16 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="77" t="s">
+      <c r="V10" s="73" t="s">
         <v>1206</v>
       </c>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
@@ -13554,16 +13552,16 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="74" t="s">
         <v>1207</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -13587,14 +13585,14 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -13618,16 +13616,16 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="78" t="s">
+      <c r="L18" s="80" t="s">
         <v>1208</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -13682,16 +13680,16 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="74" t="s">
         <v>1209</v>
       </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
@@ -13715,14 +13713,14 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
@@ -13777,16 +13775,16 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="80" t="s">
+      <c r="L23" s="72" t="s">
         <v>1210</v>
       </c>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -13810,14 +13808,14 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
@@ -13987,40 +13985,40 @@
     </row>
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="73" t="s">
         <v>1211</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="71" t="s">
+      <c r="L31" s="74" t="s">
         <v>1212</v>
       </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
-      <c r="V31" s="71" t="s">
+      <c r="V31" s="74" t="s">
         <v>1213</v>
       </c>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
     </row>
     <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -14034,68 +14032,68 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
     </row>
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="71" t="s">
         <v>1214</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
     </row>
     <row r="34" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -14129,28 +14127,28 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="71" t="s">
+      <c r="L35" s="74" t="s">
         <v>1215</v>
       </c>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
-      <c r="V35" s="74" t="s">
+      <c r="V35" s="71" t="s">
         <v>1216</v>
       </c>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
@@ -14164,24 +14162,24 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
@@ -14195,14 +14193,14 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -14226,26 +14224,26 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
-      <c r="V38" s="80" t="s">
+      <c r="V38" s="72" t="s">
         <v>1209</v>
       </c>
-      <c r="W38" s="80"/>
-      <c r="X38" s="80"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
@@ -14259,26 +14257,26 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
-      <c r="L39" s="71" t="s">
+      <c r="L39" s="74" t="s">
         <v>1217</v>
       </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="80"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="80"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="80"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="80"/>
-      <c r="AC39" s="80"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
@@ -14292,14 +14290,14 @@
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -14323,28 +14321,28 @@
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="71" t="s">
+      <c r="L41" s="74" t="s">
         <v>1218</v>
       </c>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="71" t="s">
+      <c r="V41" s="74" t="s">
         <v>1219</v>
       </c>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
     </row>
     <row r="42" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
@@ -14358,24 +14356,24 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
     </row>
     <row r="43" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
@@ -14389,26 +14387,26 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
-      <c r="L43" s="80" t="s">
+      <c r="L43" s="72" t="s">
         <v>1220</v>
       </c>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="80"/>
-      <c r="S43" s="80"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
     </row>
     <row r="44" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
@@ -14422,26 +14420,26 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="80"/>
-      <c r="S44" s="80"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="74" t="s">
+      <c r="V44" s="71" t="s">
         <v>1221</v>
       </c>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
+      <c r="AC44" s="71"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
@@ -14455,24 +14453,24 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="80"/>
-      <c r="S45" s="80"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
     </row>
     <row r="46" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
@@ -14486,16 +14484,16 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="71" t="s">
+      <c r="L46" s="74" t="s">
         <v>1222</v>
       </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -14509,26 +14507,26 @@
     </row>
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="71" t="s">
         <v>1223</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -14542,24 +14540,24 @@
     </row>
     <row r="48" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -14573,14 +14571,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="74"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -14604,14 +14602,14 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -14635,14 +14633,14 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -15797,6 +15795,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ni3oRhRFSHLqcHPeDMM9oJPhO6WfMxTCuA0QUr0aYxZ5GIVg5SnJ0DmCKugqbXaRKsIRpp0xaviZSFtXtsEQYA==" saltValue="uU6zNIz4+Gs4uisLnne5sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="L20:S21"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="L16:S17"/>
+    <mergeCell ref="L18:S18"/>
     <mergeCell ref="B47:I51"/>
     <mergeCell ref="L23:S24"/>
     <mergeCell ref="B31:I31"/>
@@ -15812,18 +15822,6 @@
     <mergeCell ref="L43:S45"/>
     <mergeCell ref="V44:AC45"/>
     <mergeCell ref="L46:S48"/>
-    <mergeCell ref="L20:S21"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="L18:S18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{5E7C7A05-D050-4790-AD5A-2C904F987D3F}"/>
@@ -16099,7 +16097,7 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -16175,52 +16173,52 @@
         <v>409</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="Y1" s="36" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="AA1" s="36" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="AC1" s="36" t="s">
         <v>2</v>
@@ -16229,21 +16227,21 @@
         <v>1110</v>
       </c>
       <c r="AE1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="AF1" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>6</v>
@@ -16268,7 +16266,7 @@
         <v>52</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="L2" s="39"/>
       <c r="M2" s="39" t="s">
@@ -16450,13 +16448,13 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>1228</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>1227</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>11</v>
@@ -16481,7 +16479,7 @@
         <v>1185</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="39" t="s">
@@ -27290,7 +27288,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -27298,7 +27296,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B2">
         <v>2</v>

--- a/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
+++ b/src/integrationTest/resources/Staff Data Upload With Some Empty Rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_900458/Documents/HMCTS/rd-caseworker-ref-api/src/integrationTest/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukaszwolski/rd-repos/rd-caseworker-ref-api/src/integrationTest/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04DAAE3-3151-5F40-BC83-5C636D473F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C172C-B493-E348-B86E-B99638C87BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
+    <workbookView xWindow="4440" yWindow="-19320" windowWidth="35100" windowHeight="16340" activeTab="3" xr2:uid="{C3779BBE-D7A5-4756-9223-DEADF9C5B8AB}"/>
   </bookViews>
   <sheets>
     <sheet name="VERSION" sheetId="13" r:id="rId1"/>
@@ -42,8 +42,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4313,7 +4317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -4383,7 +4387,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4402,7 +4406,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4420,18 +4424,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4447,10 +4447,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4491,19 +4491,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4511,12 +4499,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12555,7 +12555,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="VERSION"/>
@@ -12586,9 +12586,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -12626,7 +12626,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -12732,7 +12732,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12874,7 +12874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12901,64 +12901,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>1189</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>1186</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="51" t="s">
         <v>1192</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>1187</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="51">
         <v>2021</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>1188</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>1191</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>1190</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>1224</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -13143,60 +13143,60 @@
       <c r="AB3" s="30"/>
       <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="1:34" s="70" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="76" t="s">
+    <row r="4" spans="1:34" s="68" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="66"/>
+      <c r="B4" s="70" t="s">
         <v>1198</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="67" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="65" t="s">
         <v>1199</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="76" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="70" t="s">
         <v>1200</v>
       </c>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
     </row>
     <row r="5" spans="1:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="71" t="s">
         <v>1225</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -13209,16 +13209,16 @@
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
-      <c r="V5" s="78" t="s">
+      <c r="V5" s="73" t="s">
         <v>1201</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
     </row>
     <row r="6" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="30"/>
@@ -13242,27 +13242,27 @@
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
     </row>
     <row r="7" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="30"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="74" t="s">
         <v>1202</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
@@ -13275,29 +13275,29 @@
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="79" t="s">
+      <c r="V7" s="74" t="s">
         <v>1203</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="79"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="79"/>
-      <c r="AA7" s="79"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="79"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
     </row>
     <row r="8" spans="1:34" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="75" t="s">
         <v>1204</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -13310,16 +13310,16 @@
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="73" t="s">
+      <c r="V8" s="75" t="s">
         <v>1205</v>
       </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
     </row>
     <row r="9" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
@@ -13343,14 +13343,14 @@
       <c r="S9" s="30"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="66"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
     </row>
     <row r="10" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="30"/>
@@ -13374,16 +13374,16 @@
       <c r="S10" s="30"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="73" t="s">
+      <c r="V10" s="75" t="s">
         <v>1206</v>
       </c>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="30"/>
@@ -13552,16 +13552,16 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="69" t="s">
         <v>1207</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
@@ -13585,14 +13585,14 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
       <c r="V17" s="30"/>
@@ -13616,16 +13616,16 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="80" t="s">
+      <c r="L18" s="76" t="s">
         <v>1208</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
       <c r="V18" s="30"/>
@@ -13649,14 +13649,14 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
       <c r="V19" s="30"/>
@@ -13680,16 +13680,16 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="69" t="s">
         <v>1209</v>
       </c>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
       <c r="V20" s="30"/>
@@ -13713,14 +13713,14 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
       <c r="V21" s="30"/>
@@ -13744,14 +13744,14 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
@@ -13775,16 +13775,16 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
-      <c r="L23" s="72" t="s">
+      <c r="L23" s="78" t="s">
         <v>1210</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
       <c r="V23" s="30"/>
@@ -13808,14 +13808,14 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
@@ -13985,40 +13985,40 @@
     </row>
     <row r="31" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="75" t="s">
         <v>1211</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
-      <c r="L31" s="74" t="s">
+      <c r="L31" s="69" t="s">
         <v>1212</v>
       </c>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
-      <c r="V31" s="74" t="s">
+      <c r="V31" s="69" t="s">
         <v>1213</v>
       </c>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
     </row>
     <row r="32" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
@@ -14032,68 +14032,68 @@
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="75"/>
-      <c r="Y32" s="75"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="75"/>
-      <c r="AB32" s="75"/>
-      <c r="AC32" s="75"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
     </row>
     <row r="33" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="72" t="s">
         <v>1214</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
-      <c r="V33" s="75"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="75"/>
-      <c r="Y33" s="75"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="75"/>
-      <c r="AB33" s="75"/>
-      <c r="AC33" s="75"/>
+      <c r="V33" s="77"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="77"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="77"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="77"/>
     </row>
     <row r="34" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -14127,28 +14127,28 @@
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
-      <c r="L35" s="74" t="s">
+      <c r="L35" s="69" t="s">
         <v>1215</v>
       </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
-      <c r="V35" s="71" t="s">
+      <c r="V35" s="72" t="s">
         <v>1216</v>
       </c>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
@@ -14162,24 +14162,24 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
@@ -14193,14 +14193,14 @@
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
       <c r="V37" s="30"/>
@@ -14224,26 +14224,26 @@
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="78" t="s">
         <v>1209</v>
       </c>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="78"/>
+      <c r="AC38" s="78"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
@@ -14257,26 +14257,26 @@
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
-      <c r="L39" s="74" t="s">
+      <c r="L39" s="69" t="s">
         <v>1217</v>
       </c>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="78"/>
+      <c r="AC39" s="78"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
@@ -14290,14 +14290,14 @@
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="69"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
       <c r="V40" s="30"/>
@@ -14321,28 +14321,28 @@
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
-      <c r="L41" s="74" t="s">
+      <c r="L41" s="69" t="s">
         <v>1218</v>
       </c>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
-      <c r="V41" s="74" t="s">
+      <c r="V41" s="69" t="s">
         <v>1219</v>
       </c>
-      <c r="W41" s="74"/>
-      <c r="X41" s="74"/>
-      <c r="Y41" s="74"/>
-      <c r="Z41" s="74"/>
-      <c r="AA41" s="74"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="69"/>
     </row>
     <row r="42" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
@@ -14356,24 +14356,24 @@
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="69"/>
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="74"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="69"/>
+      <c r="X42" s="69"/>
+      <c r="Y42" s="69"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="69"/>
     </row>
     <row r="43" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
@@ -14387,26 +14387,26 @@
       <c r="I43" s="30"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
-      <c r="L43" s="72" t="s">
+      <c r="L43" s="78" t="s">
         <v>1220</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="69"/>
+      <c r="X43" s="69"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
     </row>
     <row r="44" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
@@ -14420,26 +14420,26 @@
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="72" t="s">
         <v>1221</v>
       </c>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="30"/>
@@ -14453,24 +14453,24 @@
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="72"/>
-      <c r="R45" s="72"/>
-      <c r="S45" s="72"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+      <c r="Y45" s="72"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="72"/>
     </row>
     <row r="46" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30"/>
@@ -14484,16 +14484,16 @@
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
-      <c r="L46" s="74" t="s">
+      <c r="L46" s="69" t="s">
         <v>1222</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="69"/>
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
       <c r="V46" s="30"/>
@@ -14507,26 +14507,26 @@
     </row>
     <row r="47" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="72" t="s">
         <v>1223</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="69"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
       <c r="V47" s="30"/>
@@ -14540,24 +14540,24 @@
     </row>
     <row r="48" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
       <c r="V48" s="30"/>
@@ -14571,14 +14571,14 @@
     </row>
     <row r="49" spans="1:29" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -14602,14 +14602,14 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -14633,14 +14633,14 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="30"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -15795,18 +15795,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Ni3oRhRFSHLqcHPeDMM9oJPhO6WfMxTCuA0QUr0aYxZ5GIVg5SnJ0DmCKugqbXaRKsIRpp0xaviZSFtXtsEQYA==" saltValue="uU6zNIz4+Gs4uisLnne5sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
-    <mergeCell ref="L20:S21"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="V4:AC4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="V7:AC7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="L16:S17"/>
-    <mergeCell ref="L18:S18"/>
     <mergeCell ref="B47:I51"/>
     <mergeCell ref="L23:S24"/>
     <mergeCell ref="B31:I31"/>
@@ -15822,6 +15810,18 @@
     <mergeCell ref="L43:S45"/>
     <mergeCell ref="V44:AC45"/>
     <mergeCell ref="L46:S48"/>
+    <mergeCell ref="L20:S21"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="V4:AC4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="V7:AC7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="L16:S17"/>
+    <mergeCell ref="L18:S18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{5E7C7A05-D050-4790-AD5A-2C904F987D3F}"/>
@@ -15846,79 +15846,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="65" customWidth="1"/>
-    <col min="3" max="3" width="87.1640625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="63"/>
+    <col min="1" max="1" width="38.33203125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="87.1640625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:4" s="56" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
         <v>1162</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>1194</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>1163</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="58" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>1164</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="59" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>1166</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="59" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="53" t="s">
         <v>1168</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="59" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -15926,8 +15926,8 @@
       <c r="A7" s="33" t="s">
         <v>1172</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="61" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -15935,8 +15935,8 @@
       <c r="A8" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="61" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -15944,33 +15944,33 @@
       <c r="A9" s="33" t="s">
         <v>1175</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="61" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="62" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="53" t="s">
         <v>408</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>1178</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="60" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -15978,22 +15978,22 @@
       <c r="A12" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="61" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>1180</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="60" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -16001,8 +16001,8 @@
       <c r="A14" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16010,8 +16010,8 @@
       <c r="A15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16019,8 +16019,8 @@
       <c r="A16" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="63" t="s">
+      <c r="B16" s="55"/>
+      <c r="C16" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16028,8 +16028,8 @@
       <c r="A17" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16037,8 +16037,8 @@
       <c r="A18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16046,8 +16046,8 @@
       <c r="A19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16055,8 +16055,8 @@
       <c r="A20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="61" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16064,22 +16064,22 @@
       <c r="A21" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="63" t="s">
+      <c r="B21" s="55"/>
+      <c r="C21" s="61" t="s">
         <v>1181</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="60" t="s">
         <v>1197</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="53" t="s">
         <v>1182</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="59" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -16097,8 +16097,8 @@
   </sheetPr>
   <dimension ref="A1:AF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16136,22 +16136,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>1105</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>1106</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>1107</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>1108</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="26" t="s">
@@ -16163,16 +16163,16 @@
       <c r="I1" s="26" t="s">
         <v>1184</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="52" t="s">
         <v>408</v>
       </c>
       <c r="L1" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="52" t="s">
         <v>1232</v>
       </c>
       <c r="N1" s="27" t="s">
@@ -16223,7 +16223,7 @@
       <c r="AC1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="52" t="s">
         <v>1110</v>
       </c>
       <c r="AE1" t="s">
@@ -16240,7 +16240,7 @@
       <c r="B2" s="39" t="s">
         <v>1226</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>1227</v>
       </c>
       <c r="D2" s="39" t="s">
@@ -16319,7 +16319,7 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D3,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D3,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16384,7 +16384,7 @@
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D4,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D4,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16453,7 +16453,7 @@
       <c r="B5" s="39" t="s">
         <v>1229</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>1228</v>
       </c>
       <c r="D5" s="39" t="s">
@@ -16476,7 +16476,7 @@
         <v/>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1185</v>
+        <v>53</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>1248</v>
@@ -16532,7 +16532,7 @@
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D6,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D6,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16597,7 +16597,7 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D7,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D7,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16662,7 +16662,7 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D8,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D8,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16727,7 +16727,7 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D9,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D9,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16792,7 +16792,7 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D10,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D10,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16857,7 +16857,7 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D11,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D11,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16922,7 +16922,7 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D12,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D12,Region!$A$1:$B$9,2,FALSE))</f>
@@ -16987,7 +16987,7 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D13,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D13,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17052,7 +17052,7 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D14,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D14,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17117,7 +17117,7 @@
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D15,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D15,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17182,7 +17182,7 @@
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D16,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D16,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17247,7 +17247,7 @@
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D17,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D17,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17312,7 +17312,7 @@
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D18,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D18,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17377,7 +17377,7 @@
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D19,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D19,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17442,7 +17442,7 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D20,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D20,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17507,7 +17507,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D21,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D21,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17572,7 +17572,7 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D22,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D22,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17637,7 +17637,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D23,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D23,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17702,7 +17702,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D24,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D24,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17767,7 +17767,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D25,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D25,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17832,7 +17832,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D26,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D26,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17897,7 +17897,7 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D27,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D27,Region!$A$1:$B$9,2,FALSE))</f>
@@ -17962,7 +17962,7 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D28,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D28,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18027,7 +18027,7 @@
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
+      <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D29,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D29,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18092,7 +18092,7 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D30,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D30,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18157,7 +18157,7 @@
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D31,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D31,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18222,7 +18222,7 @@
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D32,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D32,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18287,7 +18287,7 @@
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
+      <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D33,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D33,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18352,7 +18352,7 @@
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
+      <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D34,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D34,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18417,7 +18417,7 @@
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D35,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D35,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18482,7 +18482,7 @@
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
+      <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D36,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D36,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18547,7 +18547,7 @@
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
+      <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D37,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D37,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18612,7 +18612,7 @@
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D38,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D38,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18677,7 +18677,7 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D39,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D39,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18742,7 +18742,7 @@
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
+      <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D40,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D40,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18807,7 +18807,7 @@
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
+      <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D41,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D41,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18872,7 +18872,7 @@
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
+      <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D42,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D42,Region!$A$1:$B$9,2,FALSE))</f>
@@ -18937,7 +18937,7 @@
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D43,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D43,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19002,7 +19002,7 @@
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="39"/>
       <c r="E44" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D44,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D44,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19067,7 +19067,7 @@
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D45,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D45,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19132,7 +19132,7 @@
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D46,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D46,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19197,7 +19197,7 @@
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D47,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D47,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19262,7 +19262,7 @@
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D48,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D48,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19327,7 +19327,7 @@
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D49,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D49,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19392,7 +19392,7 @@
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
+      <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="1" t="str">
         <f>IF(ISNA(VLOOKUP(D50,Region!$A$1:$B$9,2, FALSE)),"",VLOOKUP(D50,Region!$A$1:$B$9,2,FALSE))</f>
@@ -19454,19 +19454,279 @@
       <c r="AC50" s="39"/>
       <c r="AD50" s="39"/>
     </row>
-    <row r="51" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="F51"/>
+      <c r="H51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="O51"/>
+      <c r="Q51"/>
+      <c r="S51"/>
+      <c r="U51"/>
+      <c r="W51"/>
+      <c r="Y51"/>
+      <c r="AA51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="F52"/>
+      <c r="H52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="O52"/>
+      <c r="Q52"/>
+      <c r="S52"/>
+      <c r="U52"/>
+      <c r="W52"/>
+      <c r="Y52"/>
+      <c r="AA52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="F53"/>
+      <c r="H53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="O53"/>
+      <c r="Q53"/>
+      <c r="S53"/>
+      <c r="U53"/>
+      <c r="W53"/>
+      <c r="Y53"/>
+      <c r="AA53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="F54"/>
+      <c r="H54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="O54"/>
+      <c r="Q54"/>
+      <c r="S54"/>
+      <c r="U54"/>
+      <c r="W54"/>
+      <c r="Y54"/>
+      <c r="AA54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="F55"/>
+      <c r="H55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="O55"/>
+      <c r="Q55"/>
+      <c r="S55"/>
+      <c r="U55"/>
+      <c r="W55"/>
+      <c r="Y55"/>
+      <c r="AA55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="F56"/>
+      <c r="H56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="O56"/>
+      <c r="Q56"/>
+      <c r="S56"/>
+      <c r="U56"/>
+      <c r="W56"/>
+      <c r="Y56"/>
+      <c r="AA56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="F57"/>
+      <c r="H57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="O57"/>
+      <c r="Q57"/>
+      <c r="S57"/>
+      <c r="U57"/>
+      <c r="W57"/>
+      <c r="Y57"/>
+      <c r="AA57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="F58"/>
+      <c r="H58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="O58"/>
+      <c r="Q58"/>
+      <c r="S58"/>
+      <c r="U58"/>
+      <c r="W58"/>
+      <c r="Y58"/>
+      <c r="AA58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="F59"/>
+      <c r="H59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="O59"/>
+      <c r="Q59"/>
+      <c r="S59"/>
+      <c r="U59"/>
+      <c r="W59"/>
+      <c r="Y59"/>
+      <c r="AA59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="F60"/>
+      <c r="H60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="O60"/>
+      <c r="Q60"/>
+      <c r="S60"/>
+      <c r="U60"/>
+      <c r="W60"/>
+      <c r="Y60"/>
+      <c r="AA60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="F61"/>
+      <c r="H61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="O61"/>
+      <c r="Q61"/>
+      <c r="S61"/>
+      <c r="U61"/>
+      <c r="W61"/>
+      <c r="Y61"/>
+      <c r="AA61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="F62"/>
+      <c r="H62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="O62"/>
+      <c r="Q62"/>
+      <c r="S62"/>
+      <c r="U62"/>
+      <c r="W62"/>
+      <c r="Y62"/>
+      <c r="AA62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="F63"/>
+      <c r="H63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="O63"/>
+      <c r="Q63"/>
+      <c r="S63"/>
+      <c r="U63"/>
+      <c r="W63"/>
+      <c r="Y63"/>
+      <c r="AA63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="9" type="noConversion"/>
